--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>513</v>
+        <v>509.291461187893</v>
       </c>
       <c r="C2">
-        <v>357</v>
+        <v>355.3664490273144</v>
       </c>
       <c r="D2">
-        <v>306</v>
+        <v>304.5855631686791</v>
       </c>
       <c r="E2">
-        <v>282</v>
+        <v>280.1723854596627</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>603</v>
+        <v>598.4954603342391</v>
       </c>
       <c r="C3">
-        <v>420</v>
+        <v>418.9857197695599</v>
       </c>
       <c r="D3">
-        <v>359</v>
+        <v>357.3558453484139</v>
       </c>
       <c r="E3">
-        <v>333</v>
+        <v>331.565737373865</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>576</v>
+        <v>572.6393071452801</v>
       </c>
       <c r="C4">
-        <v>404</v>
+        <v>402.1265504482542</v>
       </c>
       <c r="D4">
-        <v>345</v>
+        <v>343.9891792172732</v>
       </c>
       <c r="E4">
-        <v>321</v>
+        <v>319.5669083563943</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>396</v>
+        <v>393.4905759255764</v>
       </c>
       <c r="C5">
-        <v>277</v>
+        <v>276.213026956218</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>232.832744098615</v>
       </c>
       <c r="E5">
-        <v>220</v>
+        <v>218.6987064554309</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>353</v>
+        <v>350.5477972904769</v>
       </c>
       <c r="C6">
-        <v>245</v>
+        <v>244.3955655368507</v>
       </c>
       <c r="D6">
-        <v>208</v>
+        <v>207.1470503427233</v>
       </c>
       <c r="E6">
-        <v>193</v>
+        <v>191.9618107489409</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>36.65128319507506</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>25.57506905940752</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>21.91258491892667</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>20.24933835187164</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>1996.711446961557</v>
       </c>
       <c r="C8">
-        <v>1399</v>
+        <v>1393.477163308715</v>
       </c>
       <c r="D8">
-        <v>1210</v>
+        <v>1204.286864990044</v>
       </c>
       <c r="E8">
-        <v>1108</v>
+        <v>1103.377142008882</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>505</v>
+        <v>502.0824162856143</v>
       </c>
       <c r="C9">
-        <v>353</v>
+        <v>351.7372728805154</v>
       </c>
       <c r="D9">
-        <v>301</v>
+        <v>299.8303694770588</v>
       </c>
       <c r="E9">
-        <v>280</v>
+        <v>278.4862426358364</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>206</v>
+        <v>204.8215920687625</v>
       </c>
       <c r="C10">
-        <v>144</v>
+        <v>143.3785024642036</v>
       </c>
       <c r="D10">
-        <v>126</v>
+        <v>125.7069016271475</v>
       </c>
       <c r="E10">
-        <v>116</v>
+        <v>115.1558680344456</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>37.72954408524613</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>25.07765809233451</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>21.71277507041724</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>21.44469988760394</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>87.10810053658919</v>
       </c>
       <c r="C12">
-        <v>65</v>
+        <v>64.69472673945423</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>56.97064824144755</v>
       </c>
       <c r="E12">
-        <v>52</v>
+        <v>51.6504788309662</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>116</v>
+        <v>114.7584831027659</v>
       </c>
       <c r="C13">
-        <v>80</v>
+        <v>79.67824661358124</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>70.60540822888949</v>
       </c>
       <c r="E13">
-        <v>66</v>
+        <v>65.46501560483037</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>509.291461187893</v>
+        <v>509.2914611878929</v>
       </c>
       <c r="C2">
-        <v>355.3664490273144</v>
+        <v>355.3664490273147</v>
       </c>
       <c r="D2">
-        <v>304.5855631686791</v>
+        <v>304.585563168679</v>
       </c>
       <c r="E2">
-        <v>280.1723854596627</v>
+        <v>280.1723854596625</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,13 +408,13 @@
         <v>598.4954603342391</v>
       </c>
       <c r="C3">
-        <v>418.9857197695599</v>
+        <v>418.9857197695598</v>
       </c>
       <c r="D3">
         <v>357.3558453484139</v>
       </c>
       <c r="E3">
-        <v>331.565737373865</v>
+        <v>331.5657373738654</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,13 +425,13 @@
         <v>572.6393071452801</v>
       </c>
       <c r="C4">
-        <v>402.1265504482542</v>
+        <v>402.1265504482544</v>
       </c>
       <c r="D4">
-        <v>343.9891792172732</v>
+        <v>343.989179217273</v>
       </c>
       <c r="E4">
-        <v>319.5669083563943</v>
+        <v>319.5669083563945</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>393.4905759255764</v>
+        <v>393.4905759255767</v>
       </c>
       <c r="C5">
         <v>276.213026956218</v>
       </c>
       <c r="D5">
-        <v>232.832744098615</v>
+        <v>232.8327440986149</v>
       </c>
       <c r="E5">
         <v>218.6987064554309</v>
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>350.5477972904769</v>
+        <v>350.5477972904774</v>
       </c>
       <c r="C6">
         <v>244.3955655368507</v>
       </c>
       <c r="D6">
-        <v>207.1470503427233</v>
+        <v>207.147050342723</v>
       </c>
       <c r="E6">
-        <v>191.9618107489409</v>
+        <v>191.961810748941</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>36.65128319507506</v>
+        <v>36.65128319507507</v>
       </c>
       <c r="C7">
         <v>25.57506905940752</v>
       </c>
       <c r="D7">
-        <v>21.91258491892667</v>
+        <v>21.91258491892665</v>
       </c>
       <c r="E7">
-        <v>20.24933835187164</v>
+        <v>20.24933835187163</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1996.711446961557</v>
+        <v>1996.711446961556</v>
       </c>
       <c r="C8">
         <v>1393.477163308715</v>
@@ -510,13 +510,13 @@
         <v>502.0824162856143</v>
       </c>
       <c r="C9">
-        <v>351.7372728805154</v>
+        <v>351.7372728805155</v>
       </c>
       <c r="D9">
-        <v>299.8303694770588</v>
+        <v>299.8303694770592</v>
       </c>
       <c r="E9">
-        <v>278.4862426358364</v>
+        <v>278.4862426358362</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>204.8215920687625</v>
+        <v>204.8215920687626</v>
       </c>
       <c r="C10">
-        <v>143.3785024642036</v>
+        <v>143.3785024642035</v>
       </c>
       <c r="D10">
         <v>125.7069016271475</v>
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>37.72954408524613</v>
+        <v>37.72954408524615</v>
       </c>
       <c r="C11">
-        <v>25.07765809233451</v>
+        <v>25.07765809233452</v>
       </c>
       <c r="D11">
         <v>21.71277507041724</v>
       </c>
       <c r="E11">
-        <v>21.44469988760394</v>
+        <v>21.44469988760392</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,13 +561,13 @@
         <v>87.10810053658919</v>
       </c>
       <c r="C12">
-        <v>64.69472673945423</v>
+        <v>64.69472673945424</v>
       </c>
       <c r="D12">
         <v>56.97064824144755</v>
       </c>
       <c r="E12">
-        <v>51.6504788309662</v>
+        <v>51.65047883096617</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>114.7584831027659</v>
+        <v>114.758483102766</v>
       </c>
       <c r="C13">
-        <v>79.67824661358124</v>
+        <v>79.67824661358119</v>
       </c>
       <c r="D13">
         <v>70.60540822888949</v>
